--- a/com.FinancialMaganer/src/main/java/com/ExcelData/Test_Case.xlsx
+++ b/com.FinancialMaganer/src/main/java/com/ExcelData/Test_Case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91960\eclipse-workspace\com.FinancialMaganer\src\main\java\com\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91960\git\repository\com.FinancialMaganer\src\main\java\com\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Financial apk" sheetId="1" r:id="rId1"/>
-    <sheet name="Demo" sheetId="2" r:id="rId2"/>
+    <sheet name="Expenses" sheetId="2" r:id="rId2"/>
+    <sheet name="Income" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Sl NO</t>
   </si>
@@ -166,6 +167,15 @@
   </si>
   <si>
     <t>Grocery</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Labour</t>
   </si>
 </sst>
 </file>
@@ -847,7 +857,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +897,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,4 +915,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>